--- a/LIBA14/files/Q08.xlsx
+++ b/LIBA14/files/Q08.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9274A134-865A-4781-A95A-F28FC6E48D56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772B089-F80D-4292-80E6-27A81C0C2CC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44,24 +37,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,10 +57,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,121 +339,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD63048A-25C0-4E5F-A355-0CDEE19A34F3}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD63048A-25C0-4E5F-A355-0CDEE19A34F3}">
-  <dimension ref="A1:A3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C966AE-CB77-4091-AA1E-BD67FE6D161D}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C966AE-CB77-4091-AA1E-BD67FE6D161D}">
-  <dimension ref="A1:A3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CC5BCB-E269-4402-8BB4-85743281AFDA}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CC5BCB-E269-4402-8BB4-85743281AFDA}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LIBA14/files/Q08.xlsx
+++ b/LIBA14/files/Q08.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772B089-F80D-4292-80E6-27A81C0C2CC6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5337E2C5-DC94-44B9-B3BF-08F62C7A8017}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,9 +337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A100"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/LIBA14/files/Q08.xlsx
+++ b/LIBA14/files/Q08.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5337E2C5-DC94-44B9-B3BF-08F62C7A8017}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B81AD-4F23-476B-BFD1-97FD0DF6B3B0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,7 +341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -379,7 +385,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
